--- a/HSYJ-演习/doc/北航版初稿/02-演习计划协调表-0712.xlsx
+++ b/HSYJ-演习/doc/北航版初稿/02-演习计划协调表-0712.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20374"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823FEC7C-CBCB-4908-9E32-B9AE422E91D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D965CD5-7F66-4FD8-B320-CD33AB32452D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="15000" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1397,6 +1397,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1409,6 +1442,15 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1442,21 +1484,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1466,15 +1493,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1483,24 +1501,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1508,6 +1508,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1527,7 +1595,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1843,10 +1911,10 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1868,54 +1936,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="16" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="48"/>
+      <c r="E2" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26" t="s">
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="L2" s="26"/>
-      <c r="M2" s="39" t="s">
+      <c r="L2" s="37"/>
+      <c r="M2" s="53" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="18" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="11" t="s">
         <v>131</v>
       </c>
@@ -1946,7 +2014,7 @@
       <c r="L3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="40"/>
+      <c r="M3" s="54"/>
     </row>
     <row r="4" spans="1:13" ht="90.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
@@ -2012,7 +2080,7 @@
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="41" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2033,7 +2101,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="44"/>
+      <c r="M6" s="42"/>
     </row>
     <row r="7" spans="1:13" ht="60.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
@@ -2058,7 +2126,7 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="22"/>
-      <c r="M7" s="44"/>
+      <c r="M7" s="42"/>
     </row>
     <row r="8" spans="1:13" ht="86.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
@@ -2079,7 +2147,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="22"/>
-      <c r="M8" s="44"/>
+      <c r="M8" s="42"/>
     </row>
     <row r="9" spans="1:13" ht="39.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
@@ -2100,26 +2168,26 @@
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
       <c r="L9" s="22"/>
-      <c r="M9" s="45"/>
+      <c r="M9" s="43"/>
     </row>
     <row r="10" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="10"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="32"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
     </row>
     <row r="11" spans="1:13" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
@@ -2311,7 +2379,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="10"/>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E18" s="10"/>
@@ -2333,7 +2401,7 @@
         <v>88</v>
       </c>
       <c r="B19" s="10"/>
-      <c r="C19" s="42"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="21" t="s">
         <v>170</v>
       </c>
@@ -2442,7 +2510,7 @@
         <v>63</v>
       </c>
       <c r="B24" s="10"/>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="35" t="s">
         <v>169</v>
       </c>
       <c r="D24" s="10"/>
@@ -2467,7 +2535,7 @@
         <v>64</v>
       </c>
       <c r="B25" s="10"/>
-      <c r="C25" s="42"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
         <v>23</v>
@@ -2536,7 +2604,7 @@
       <c r="B28" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="35" t="s">
         <v>174</v>
       </c>
       <c r="D28" s="10"/>
@@ -2563,7 +2631,7 @@
         <v>67</v>
       </c>
       <c r="B29" s="22"/>
-      <c r="C29" s="42"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="10"/>
       <c r="E29" s="22" t="s">
         <v>105</v>
@@ -2658,11 +2726,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="M5:M9"/>
@@ -2671,6 +2734,11 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="M2:M3"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2693,50 +2761,50 @@
     <col min="3" max="3" width="13.875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2757,10 +2825,10 @@
       <c r="G3" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2796,73 +2864,73 @@
     <col min="22" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="31" t="s">
         <v>109</v>
       </c>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
     <row r="3" spans="1:21" ht="220.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="31" t="s">
         <v>87</v>
       </c>
       <c r="E3" s="25" t="s">
@@ -2874,7 +2942,7 @@
       <c r="G3" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="31" t="s">
         <v>193</v>
       </c>
       <c r="I3" s="25" t="s">
@@ -3029,19 +3097,19 @@
     <col min="1" max="10" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
         <v>178</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -3107,19 +3175,19 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="46" t="s">
+    <row r="4" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="48"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -3194,19 +3262,19 @@
     <col min="2" max="2" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:16" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="25" t="s">
@@ -3349,72 +3417,72 @@
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:23" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="31" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="L2" s="57" t="s">
+      <c r="L2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="57" t="s">
+      <c r="M2" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="31" t="s">
         <v>69</v>
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
     <row r="3" spans="1:23" ht="156.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="25" t="s">
@@ -3423,10 +3491,10 @@
       <c r="C3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="31" t="s">
         <v>113</v>
       </c>
       <c r="F3" s="25" t="s">
@@ -3441,19 +3509,19 @@
       <c r="I3" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="31" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="57" t="s">
+      <c r="M3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="31" t="s">
         <v>25</v>
       </c>
       <c r="V3" s="5"/>
@@ -3611,72 +3679,72 @@
     <col min="21" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:20" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="31" t="s">
         <v>93</v>
       </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
     </row>
     <row r="3" spans="1:20" ht="156.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="31" t="s">
         <v>139</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="31" t="s">
         <v>76</v>
       </c>
       <c r="F3" s="25" t="s">
@@ -3688,7 +3756,7 @@
       <c r="H3" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="31" t="s">
         <v>89</v>
       </c>
       <c r="J3" s="25" t="s">
@@ -3848,131 +3916,131 @@
     <col min="16" max="16" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:21" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-    </row>
-    <row r="2" spans="1:21" s="51" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+    </row>
+    <row r="2" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="E2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="56" t="s">
+      <c r="H2" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="I2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="56" t="s">
+      <c r="J2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="L2" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="M2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="N2" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="Q2" s="56" t="s">
+      <c r="Q2" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="56" t="s">
+      <c r="R2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="56" t="s">
+      <c r="S2" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="T2" s="56" t="s">
+      <c r="T2" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="U2" s="56" t="s">
+      <c r="U2" s="30" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="324" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:21" ht="243" x14ac:dyDescent="0.15">
+      <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="57" t="s">
+      <c r="H3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="57" t="s">
+      <c r="K3" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="31" t="s">
         <v>41</v>
       </c>
       <c r="M3" s="25" t="s">
@@ -3999,7 +4067,7 @@
       <c r="T3" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="U3" s="57" t="s">
+      <c r="U3" s="31" t="s">
         <v>120</v>
       </c>
     </row>
@@ -4029,64 +4097,64 @@
     <col min="2" max="2" width="10.375" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:9" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="60"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="31" t="s">
         <v>15</v>
       </c>
       <c r="F2" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:9" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="31" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
@@ -4116,74 +4184,74 @@
     <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
     </row>
     <row r="3" spans="1:11" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="31" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="57" t="s">
+      <c r="G3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B9" s="3"/>
@@ -4213,49 +4281,49 @@
     <col min="3" max="3" width="13.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="60"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="81" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="31" t="s">
         <v>155</v>
       </c>
       <c r="C3" s="25" t="s">
@@ -4270,10 +4338,10 @@
       <c r="F3" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
